--- a/Find/graph.xlsx
+++ b/Find/graph.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dsa_spring2014\task2\dsa-spring2014-task2-src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9615"/>
+    <workbookView windowWidth="19890" windowHeight="9030"/>
   </bookViews>
   <sheets>
-    <sheet name="Lookup" sheetId="2" r:id="rId1"/>
-    <sheet name="Add" sheetId="1" r:id="rId2"/>
+    <sheet name="Lookup" sheetId="1" r:id="rId1"/>
+    <sheet name="Add" sheetId="2" r:id="rId2"/>
+    <sheet name="Данные" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>N</t>
   </si>
@@ -34,18 +25,248 @@
   </si>
   <si>
     <t>T(Hash)</t>
+  </si>
+  <si>
+    <t>0.000082</t>
+  </si>
+  <si>
+    <t>0.000088</t>
+  </si>
+  <si>
+    <t>0.000173</t>
+  </si>
+  <si>
+    <t>0.000184</t>
+  </si>
+  <si>
+    <t>0.000335</t>
+  </si>
+  <si>
+    <t>0.000343</t>
+  </si>
+  <si>
+    <t>0.000509</t>
+  </si>
+  <si>
+    <t>0.000506</t>
+  </si>
+  <si>
+    <t>0.000651</t>
+  </si>
+  <si>
+    <t>0.000649</t>
+  </si>
+  <si>
+    <t>0.000783</t>
+  </si>
+  <si>
+    <t>0.000797</t>
+  </si>
+  <si>
+    <t>0.000932</t>
+  </si>
+  <si>
+    <t>0.000896</t>
+  </si>
+  <si>
+    <t>0.001024</t>
+  </si>
+  <si>
+    <t>0.001045</t>
+  </si>
+  <si>
+    <t>0.001146</t>
+  </si>
+  <si>
+    <t>0.001141</t>
+  </si>
+  <si>
+    <t>0.001267</t>
+  </si>
+  <si>
+    <t>0.001302</t>
+  </si>
+  <si>
+    <t>0.001395</t>
+  </si>
+  <si>
+    <t>0.001423</t>
+  </si>
+  <si>
+    <t>0.001512</t>
+  </si>
+  <si>
+    <t>0.001528</t>
+  </si>
+  <si>
+    <t>0.001651</t>
+  </si>
+  <si>
+    <t>0.001706</t>
+  </si>
+  <si>
+    <t>0.001816</t>
+  </si>
+  <si>
+    <t>0.001788</t>
+  </si>
+  <si>
+    <t>0.001954</t>
+  </si>
+  <si>
+    <t>0.001903</t>
+  </si>
+  <si>
+    <t>0.002050</t>
+  </si>
+  <si>
+    <t>0.002035</t>
+  </si>
+  <si>
+    <t>0.002164</t>
+  </si>
+  <si>
+    <t>0.002141</t>
+  </si>
+  <si>
+    <t>0.002355</t>
+  </si>
+  <si>
+    <t>0.002320</t>
+  </si>
+  <si>
+    <t>0.002411</t>
+  </si>
+  <si>
+    <t>0.002436</t>
+  </si>
+  <si>
+    <t>0.002575</t>
+  </si>
+  <si>
+    <t>0.002620</t>
+  </si>
+  <si>
+    <t>задание1</t>
+  </si>
+  <si>
+    <t>bstree_lkup</t>
+  </si>
+  <si>
+    <t>hash_lkup</t>
+  </si>
+  <si>
+    <t>колво</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>avrg</t>
+  </si>
+  <si>
+    <t>задание 6</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>col_kp</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>col_xor</t>
+  </si>
+  <si>
+    <t>0.000001192092895507812500000000</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000</t>
+  </si>
+  <si>
+    <t>0.0000040531158447265625000</t>
+  </si>
+  <si>
+    <t>0.000000953674316406250000000000</t>
+  </si>
+  <si>
+    <t>0.0000119209289550781250000</t>
+  </si>
+  <si>
+    <t>0.0000009536743164062500000</t>
+  </si>
+  <si>
+    <t>0.0000150203704833984375000</t>
+  </si>
+  <si>
+    <t>0.0000011920928955078125000</t>
+  </si>
+  <si>
+    <t>0.0000309944152832031250000</t>
+  </si>
+  <si>
+    <t>0.0000460147857666015625000</t>
+  </si>
+  <si>
+    <t>0.0000360012054443359375000</t>
+  </si>
+  <si>
+    <t>0.0000419616699218750000000</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>0.0000569820404052734375000</t>
+  </si>
+  <si>
+    <t>0.0000691413879394531250000</t>
+  </si>
+  <si>
+    <t>0.0000801086425781250000000</t>
+  </si>
+  <si>
+    <t>0.0000829696655273437500000</t>
+  </si>
+  <si>
+    <t>0.0000967979431152343750000</t>
+  </si>
+  <si>
+    <t>0.0001299381256103515625000</t>
+  </si>
+  <si>
+    <t>0.0001361370086669921875000</t>
+  </si>
+  <si>
+    <t>0.0001609325408935546875000</t>
+  </si>
+  <si>
+    <t>0.0001630783081054687500000</t>
+  </si>
+  <si>
+    <t>0.0001690387725830078125000</t>
+  </si>
+  <si>
+    <t>0.0001749992370605468750000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -54,20 +275,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,36 +639,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="60% — Акцент6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% — Акцент6" xfId="2" builtinId="51"/>
+    <cellStyle name="Акцент4" xfId="3" builtinId="41"/>
+    <cellStyle name="20% — Акцент6" xfId="4" builtinId="50"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8"/>
+    <cellStyle name="40% — Акцент5" xfId="6" builtinId="47"/>
+    <cellStyle name="Акцент3" xfId="7" builtinId="37"/>
+    <cellStyle name="20% — Акцент5" xfId="8" builtinId="46"/>
+    <cellStyle name="Акцент2" xfId="9" builtinId="33"/>
+    <cellStyle name="20% — Акцент4" xfId="10" builtinId="42"/>
+    <cellStyle name="Акцент1" xfId="11" builtinId="29"/>
+    <cellStyle name="20% — Акцент3" xfId="12" builtinId="38"/>
+    <cellStyle name="Заголовок 1" xfId="13" builtinId="16"/>
+    <cellStyle name="Денежный" xfId="14" builtinId="4"/>
+    <cellStyle name="60% — Акцент2" xfId="15" builtinId="36"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Акцент6" xfId="17" builtinId="49"/>
+    <cellStyle name="Процент" xfId="18" builtinId="5"/>
+    <cellStyle name="40% — Акцент2" xfId="19" builtinId="35"/>
+    <cellStyle name="20% — Акцент2" xfId="20" builtinId="34"/>
+    <cellStyle name="Запятая" xfId="21" builtinId="3"/>
+    <cellStyle name="Акцент5" xfId="22" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="23" builtinId="28"/>
+    <cellStyle name="40% — Акцент1" xfId="24" builtinId="31"/>
+    <cellStyle name="20% — Акцент1" xfId="25" builtinId="30"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
+    <cellStyle name="60% — Акцент5" xfId="29" builtinId="48"/>
+    <cellStyle name="Заголовок 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Заголовок 3" xfId="31" builtinId="18"/>
+    <cellStyle name="60% — Акцент4" xfId="32" builtinId="44"/>
+    <cellStyle name="Плохой" xfId="33" builtinId="27"/>
+    <cellStyle name="Вычисление" xfId="34" builtinId="22"/>
+    <cellStyle name="Пояснительный текст" xfId="35" builtinId="53"/>
+    <cellStyle name="Денежный[0]" xfId="36" builtinId="7"/>
+    <cellStyle name="40% — Акцент3" xfId="37" builtinId="39"/>
+    <cellStyle name="Заголовок" xfId="38" builtinId="15"/>
+    <cellStyle name="Предупреждающий текст" xfId="39" builtinId="11"/>
+    <cellStyle name="Примечание" xfId="40" builtinId="10"/>
+    <cellStyle name="Итого" xfId="41" builtinId="25"/>
+    <cellStyle name="Заголовок 2" xfId="42" builtinId="17"/>
+    <cellStyle name="60% — Акцент3" xfId="43" builtinId="40"/>
+    <cellStyle name="Запятая[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="60% — Акцент1" xfId="45" builtinId="32"/>
+    <cellStyle name="Хороший" xfId="46" builtinId="26"/>
+    <cellStyle name="40% — Акцент4" xfId="47" builtinId="43"/>
+    <cellStyle name="Вывод" xfId="48" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -115,17 +961,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10487454693163355"/>
-          <c:y val="6.1888565981435939E-2"/>
-          <c:w val="0.86461926634170727"/>
-          <c:h val="0.76137043266479976"/>
+          <c:x val="0.104874546931634"/>
+          <c:y val="0.0618885659814359"/>
+          <c:w val="0.864619266341707"/>
+          <c:h val="0.7613704326648"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -135,7 +981,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Binary Search Tree</c:v>
+            <c:strRef>
+              <c:f>"Binary Search Tree"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary Search Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -237,64 +1091,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13.287712379549451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.287712379549449</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.872674880270607</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.287712379549449</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.609640474436812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.872674880270607</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.095067301607052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.287712379549451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.457637380991763</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.609640474436812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.747143998186747</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.872674880270608</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.988152097690541</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.095067301607052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.194602975157967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.287712379549451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.37517522079979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.457637380991763</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.535639892993036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.609640474436812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,7 +1159,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Hash table</c:v>
+            <c:strRef>
+              <c:f>"Hash table"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hash table</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -407,64 +1269,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.6438561897747253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1438561897747244</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4363374401353033</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6438561897747244</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8048202372184061</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9363374401353033</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0475336508035262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1438561897747253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2288186904958813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3048202372184061</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3735719990933735</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4363374401353042</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4940760488452707</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5475336508035262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5973014875789833</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6438561897747253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6875876103998948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7288186904958813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7678199464965179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8048202372184061</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,6 +1334,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -493,6 +1356,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -520,7 +1384,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -533,7 +1397,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="346691912"/>
@@ -554,6 +1417,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -580,7 +1444,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -593,7 +1457,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="346693872"/>
@@ -625,28 +1488,27 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="ru-RU"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -657,17 +1519,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10487454693163355"/>
-          <c:y val="6.1888565981435939E-2"/>
-          <c:w val="0.86461926634170727"/>
-          <c:h val="0.77165321178962465"/>
+          <c:x val="0.104874546931634"/>
+          <c:y val="0.0618885659814359"/>
+          <c:w val="0.864619266341707"/>
+          <c:h val="0.771653211789625"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -677,7 +1539,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Binary Search Tree</c:v>
+            <c:strRef>
+              <c:f>"Binary Search Tree"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary Search Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -779,64 +1649,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13.287712379549451</c:v>
+                  <c:v>13.2877123795495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.287712379549449</c:v>
+                  <c:v>14.2877123795494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.872674880270607</c:v>
+                  <c:v>14.8726748802706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.287712379549449</c:v>
+                  <c:v>15.2877123795494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.609640474436812</c:v>
+                  <c:v>15.6096404744368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.872674880270607</c:v>
+                  <c:v>15.8726748802706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.095067301607052</c:v>
+                  <c:v>16.0950673016071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.287712379549451</c:v>
+                  <c:v>16.2877123795495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.457637380991763</c:v>
+                  <c:v>16.4576373809918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.609640474436812</c:v>
+                  <c:v>16.6096404744368</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.747143998186747</c:v>
+                  <c:v>16.7471439981867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.872674880270608</c:v>
+                  <c:v>16.8726748802706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.988152097690541</c:v>
+                  <c:v>16.9881520976905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.095067301607052</c:v>
+                  <c:v>17.0950673016071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.194602975157967</c:v>
+                  <c:v>17.194602975158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.287712379549451</c:v>
+                  <c:v>17.2877123795495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.37517522079979</c:v>
+                  <c:v>17.3751752207998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.457637380991763</c:v>
+                  <c:v>17.4576373809918</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.535639892993036</c:v>
+                  <c:v>17.535639892993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.609640474436812</c:v>
+                  <c:v>17.6096404744368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +1717,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Hash table</c:v>
+            <c:strRef>
+              <c:f>"Hash table"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hash table</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -949,64 +1827,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.6438561897747253</c:v>
+                  <c:v>6.64385618977473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1438561897747244</c:v>
+                  <c:v>7.14385618977472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4363374401353033</c:v>
+                  <c:v>7.4363374401353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6438561897747244</c:v>
+                  <c:v>7.64385618977472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8048202372184061</c:v>
+                  <c:v>7.80482023721841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9363374401353033</c:v>
+                  <c:v>7.9363374401353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0475336508035262</c:v>
+                  <c:v>8.04753365080353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1438561897747253</c:v>
+                  <c:v>8.14385618977473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2288186904958813</c:v>
+                  <c:v>8.22881869049588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3048202372184061</c:v>
+                  <c:v>8.30482023721841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3735719990933735</c:v>
+                  <c:v>8.37357199909337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4363374401353042</c:v>
+                  <c:v>8.4363374401353</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4940760488452707</c:v>
+                  <c:v>8.49407604884527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5475336508035262</c:v>
+                  <c:v>8.54753365080353</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5973014875789833</c:v>
+                  <c:v>8.59730148757898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6438561897747253</c:v>
+                  <c:v>8.64385618977473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6875876103998948</c:v>
+                  <c:v>8.68758761039989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7288186904958813</c:v>
+                  <c:v>8.72881869049588</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7678199464965179</c:v>
+                  <c:v>8.76781994649652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8048202372184061</c:v>
+                  <c:v>8.80482023721841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,6 +1892,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1035,6 +1914,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -1062,7 +1942,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1075,7 +1955,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="236271360"/>
@@ -1096,6 +1975,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -1122,7 +2002,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1135,7 +2015,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="236272144"/>
@@ -1167,21 +2046,20 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="ru-RU"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2272,7 +3150,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2286,16 +3164,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2647950" y="171450"/>
+        <a:ext cx="6296025" cy="3161665"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2313,30 +3189,30 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.10565</cdr:x>
-      <cdr:y>0.91679</cdr:y>
+      <cdr:y>0.919802653143201</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.96577</cdr:x>
-      <cdr:y>0.98858</cdr:y>
+      <cdr:y>0.991592653143201</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="676275" y="3877196"/>
-          <a:ext cx="5505450" cy="303602"/>
+          <a:off x="665175" y="2908108"/>
+          <a:ext cx="5415337" cy="226976"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" b="1"/>
@@ -2372,12 +3248,12 @@
       <cdr:x>0.0436</cdr:x>
       <cdr:y>0.84138</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
           <a:off x="-1322211" y="1516239"/>
           <a:ext cx="2936522" cy="265994"/>
@@ -2386,9 +3262,9 @@
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2453,7 +3329,7 @@
             </a:defRPr>
           </a:lvl9pPr>
         </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" b="1"/>
@@ -2484,12 +3360,12 @@
       <cdr:x>0.97321</cdr:x>
       <cdr:y>0.14139</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="4791075" y="285750"/>
           <a:ext cx="1438275" cy="238125"/>
@@ -2497,12 +3373,12 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:noFill/>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -2526,12 +3402,12 @@
       <cdr:x>0.9628</cdr:x>
       <cdr:y>0.48415</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="5299076" y="1555750"/>
           <a:ext cx="863600" cy="238125"/>
@@ -2539,11 +3415,11 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:noFill/>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2608,7 +3484,7 @@
             </a:defRPr>
           </a:lvl9pPr>
         </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -2623,7 +3499,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2637,14 +3513,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3362325" y="161925"/>
+        <a:ext cx="6305550" cy="3161665"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2668,12 +3544,12 @@
       <cdr:x>0.96577</cdr:x>
       <cdr:y>0.98858</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="676275" y="3877196"/>
           <a:ext cx="5505450" cy="303602"/>
@@ -2682,10 +3558,10 @@
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" b="1"/>
@@ -2721,12 +3597,12 @@
       <cdr:x>0.0436</cdr:x>
       <cdr:y>0.84138</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
           <a:off x="-1322211" y="1516239"/>
           <a:ext cx="2936522" cy="265994"/>
@@ -2735,9 +3611,9 @@
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2802,7 +3678,7 @@
             </a:defRPr>
           </a:lvl9pPr>
         </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" b="1"/>
@@ -2833,12 +3709,12 @@
       <cdr:x>0.97321</cdr:x>
       <cdr:y>0.14139</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="4791075" y="285750"/>
           <a:ext cx="1438275" cy="238125"/>
@@ -2846,12 +3722,12 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:noFill/>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -2875,12 +3751,12 @@
       <cdr:x>0.9628</cdr:x>
       <cdr:y>0.48415</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="5299076" y="1555750"/>
           <a:ext cx="863600" cy="238125"/>
@@ -2888,11 +3764,11 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:noFill/>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2957,7 +3833,7 @@
             </a:defRPr>
           </a:lvl9pPr>
         </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -3014,7 +3890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3049,7 +3925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3224,29 +4100,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="C21" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,288 +4129,250 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <f>LOG(A2,2)</f>
-        <v>13.287712379549451</v>
-      </c>
-      <c r="C2">
-        <f>LOG(A2,4)</f>
-        <v>6.6438561897747253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
         <v>20000</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B21" si="0">LOG(A3,2)</f>
-        <v>14.287712379549449</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C21" si="1">LOG(A3,4)</f>
-        <v>7.1438561897747244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>30000</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>14.872674880270607</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>7.4363374401353033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>40000</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>15.287712379549449</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>7.6438561897747244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>50000</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>15.609640474436812</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>7.8048202372184061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>60000</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>15.872674880270607</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>7.9363374401353033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>70000</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16.095067301607052</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>8.0475336508035262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>80000</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>16.287712379549451</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>8.1438561897747253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>90000</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>16.457637380991763</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>8.2288186904958813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>100000</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>16.609640474436812</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>8.3048202372184061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>110000</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>16.747143998186747</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>8.3735719990933735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>120000</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>16.872674880270608</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>8.4363374401353042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>130000</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>16.988152097690541</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>8.4940760488452707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>140000</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>17.095067301607052</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>8.5475336508035262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>150000</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>17.194602975157967</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>8.5973014875789833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>160000</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>17.287712379549451</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>8.6438561897747253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>170000</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>17.37517522079979</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>8.6875876103998948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>180000</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>17.457637380991763</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>8.7288186904958813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>190000</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>17.535639892993036</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>8.7678199464965179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>200000</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>17.609640474436812</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>8.8048202372184061</v>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3549,269 +4383,1026 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
         <f>LOG(A2,2)</f>
-        <v>13.287712379549451</v>
+        <v>13.2877123795495</v>
       </c>
       <c r="C2">
         <f>LOG(A2,4)</f>
-        <v>6.6438561897747253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.64385618977473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>20000</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B21" si="0">LOG(A3,2)</f>
-        <v>14.287712379549449</v>
+        <v>14.2877123795494</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" si="1">LOG(A3,4)</f>
-        <v>7.1438561897747244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.14385618977472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>30000</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>14.872674880270607</v>
+        <v>14.8726748802706</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>7.4363374401353033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4363374401353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>40000</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>15.287712379549449</v>
+        <v>15.2877123795494</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7.6438561897747244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.64385618977472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>50000</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>15.609640474436812</v>
+        <v>15.6096404744368</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>7.8048202372184061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.80482023721841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>60000</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>15.872674880270607</v>
+        <v>15.8726748802706</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>7.9363374401353033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9363374401353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>70000</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>16.095067301607052</v>
+        <v>16.0950673016071</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>8.0475336508035262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.04753365080353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>80000</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>16.287712379549451</v>
+        <v>16.2877123795495</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>8.1438561897747253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.14385618977473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>90000</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>16.457637380991763</v>
+        <v>16.4576373809918</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>8.2288186904958813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.22881869049588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>100000</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>16.609640474436812</v>
+        <v>16.6096404744368</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>8.3048202372184061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.30482023721841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>110000</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>16.747143998186747</v>
+        <v>16.7471439981867</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>8.3735719990933735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.37357199909337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>120000</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>16.872674880270608</v>
+        <v>16.8726748802706</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>8.4363374401353042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4363374401353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>130000</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>16.988152097690541</v>
+        <v>16.9881520976905</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>8.4940760488452707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.49407604884527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>140000</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>17.095067301607052</v>
+        <v>17.0950673016071</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>8.5475336508035262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.54753365080353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>150000</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>17.194602975157967</v>
+        <v>17.194602975158</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>8.5973014875789833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.59730148757898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>160000</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>17.287712379549451</v>
+        <v>17.2877123795495</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>8.6438561897747253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.64385618977473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>170000</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>17.37517522079979</v>
+        <v>17.3751752207998</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>8.6875876103998948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.68758761039989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>180000</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>17.457637380991763</v>
+        <v>17.4576373809918</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>8.7288186904958813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.72881869049588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>190000</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>17.535639892993036</v>
+        <v>17.535639892993</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>8.7678199464965179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.76781994649652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>200000</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>17.609640474436812</v>
+        <v>17.6096404744368</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>8.8048202372184061</v>
+        <v>8.80482023721841</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="9.57142857142857"/>
+    <col min="7" max="8" width="9.57142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>5.8e-5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <v>0.000102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>20000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>20000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>30000</v>
+      </c>
+      <c r="C4">
+        <v>3.8e-5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>30000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4">
+        <v>295</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>0.0002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>40000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>40000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>648</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>0.000288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>50000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>1303</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>60000</v>
+      </c>
+      <c r="C7">
+        <v>0.000337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>60000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>60000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <v>2235</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>70000</v>
+      </c>
+      <c r="C8">
+        <v>0.000297</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <v>70000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>70000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <v>3460</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>80000</v>
+      </c>
+      <c r="C9">
+        <v>0.000229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>80000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>80000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9">
+        <v>5000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>90000</v>
+      </c>
+      <c r="C10">
+        <v>0.000266</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>90000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>90000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10">
+        <v>6819</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>0.000636</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>100000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11">
+        <v>8972</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>110000</v>
+      </c>
+      <c r="C12">
+        <v>0.000418</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>110000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>110000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>11516</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>120000</v>
+      </c>
+      <c r="C13">
+        <v>0.000192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>120000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>120000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13">
+        <v>14439</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>130000</v>
+      </c>
+      <c r="C14">
+        <v>0.000777</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <v>130000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>130000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <v>17830</v>
+      </c>
+      <c r="M14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>140000</v>
+      </c>
+      <c r="C15">
+        <v>0.000258</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>140000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>140000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <v>21645</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>150000</v>
+      </c>
+      <c r="C16">
+        <v>0.000782</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>150000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>150000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <v>25855</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>160000</v>
+      </c>
+      <c r="C17">
+        <v>0.001027</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>160000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17">
+        <v>160000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <v>30421</v>
+      </c>
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <v>170000</v>
+      </c>
+      <c r="C18">
+        <v>0.001262</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>170000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>170000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>35520</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <v>180000</v>
+      </c>
+      <c r="C19">
+        <v>0.000697</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
+        <v>180000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>180000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <v>40896</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>190000</v>
+      </c>
+      <c r="C20">
+        <v>0.001285</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20">
+        <v>190000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>190000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20">
+        <v>46702</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
+        <v>200000</v>
+      </c>
+      <c r="C21">
+        <v>0.001185</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>200000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21">
+        <v>200000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21">
+        <v>52830</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>